--- a/testfileForFileIO/StudyClassExcel.xlsx
+++ b/testfileForFileIO/StudyClassExcel.xlsx
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>

--- a/testfileForFileIO/StudyClassExcel.xlsx
+++ b/testfileForFileIO/StudyClassExcel.xlsx
@@ -12,9 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
-    <t>나는 홍서연</t>
+    <t>patientId</t>
+  </si>
+  <si>
+    <t>patientName</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>홍서연</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
   </si>
 </sst>
 </file>
@@ -59,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -69,6 +105,89 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
